--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kianamac/Documents/GitHub/MODAtesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A21F764C-FBB2-A749-8B0D-92E8509DD81E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAA5D0-84E1-E949-B02A-EE1A355F8EC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1900" windowWidth="27640" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">cas1 </t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>wrong ones</t>
+  </si>
+  <si>
+    <t>number of total attributes</t>
+  </si>
+  <si>
+    <t>number of total correct brands</t>
+  </si>
+  <si>
+    <t>number of total criteria</t>
+  </si>
+  <si>
+    <t>LEX</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>EBA</t>
+  </si>
+  <si>
+    <t>WADD</t>
   </si>
 </sst>
 </file>
@@ -100,15 +121,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,13 +161,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,207 +505,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9088DE34-8834-6540-B776-D23F00742392}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>105</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>1-(C2/B2)</f>
         <v>0.98095238095238091</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E2" s="3"/>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>88</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D12" si="0">1-(C3/B3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>76</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E4" s="5"/>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>183</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>52</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>0.71584699453551914</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E5" s="5"/>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>319</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0.77429467084639492</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E6" s="5"/>
+      <c r="K6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>191</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>81</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>0.5759162303664922</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E7" s="5"/>
+      <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>346</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>33</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0.90462427745664742</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E8" s="7"/>
+      <c r="K8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>1044</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>260</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0.75095785440613028</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E9" s="9"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>1218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>193</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>0.84154351395730709</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E10" s="9"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>92</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E11" s="9"/>
+      <c r="K11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>764</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>184</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0.75916230366492143</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="K12" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kianamac/Documents/GitHub/MODAtesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAA5D0-84E1-E949-B02A-EE1A355F8EC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718F370-C77E-AE46-B23C-2FF3253C5FBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t xml:space="preserve">cas1 </t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>WADD</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>correct ones</t>
+  </si>
+  <si>
+    <t>pcnt</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,17 +195,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,60 +553,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9088DE34-8834-6540-B776-D23F00742392}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,18 +631,49 @@
         <v>105</v>
       </c>
       <c r="C2" s="2">
+        <f>B2-D2</f>
+        <v>103</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <f>1-(C2/B2)</f>
+      <c r="E2" s="3">
+        <f>1-(D2/B2)</f>
         <v>0.98095238095238091</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="K2" s="2" t="s">
+      <c r="F2" s="10">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(G2/F2)*100</f>
+        <v>98.095238095238088</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -585,18 +681,49 @@
         <v>88</v>
       </c>
       <c r="C3" s="2">
+        <f>B3-D3</f>
+        <v>88</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D12" si="0">1-(C3/B3)</f>
+      <c r="E3" s="3">
+        <f>1-(D3/B3)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="K3" s="2" t="s">
+      <c r="F3" s="10">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H12" si="0">(G3/F3)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -604,18 +731,49 @@
         <v>76</v>
       </c>
       <c r="C4" s="4">
+        <f>B4-D4</f>
+        <v>76</v>
+      </c>
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
+      <c r="E4" s="5">
+        <f>1-(D4/B4)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="K4" s="4" t="s">
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4">
+        <v>76</v>
+      </c>
+      <c r="J4" s="4">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K3:K12" si="1">(J4/I4)*100</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -623,18 +781,51 @@
         <v>183</v>
       </c>
       <c r="C5" s="4">
+        <f>B5-D5</f>
+        <v>131</v>
+      </c>
+      <c r="D5" s="4">
         <v>52</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
+        <f>1-(D5/B5)</f>
+        <v>0.71584699453551914</v>
+      </c>
+      <c r="F5" s="11">
+        <v>183</v>
+      </c>
+      <c r="G5" s="4">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>0.71584699453551914</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="K5" s="4" t="s">
+        <v>88.52459016393442</v>
+      </c>
+      <c r="I5" s="4">
+        <v>183</v>
+      </c>
+      <c r="J5" s="4">
+        <v>183</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L5" s="4">
+        <v>183</v>
+      </c>
+      <c r="M5" s="4">
+        <v>183</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N3:N12" si="2">(M5/L5)*100</f>
+        <v>100</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -642,18 +833,50 @@
         <v>319</v>
       </c>
       <c r="C6" s="4">
+        <f>B6-D6</f>
+        <v>247</v>
+      </c>
+      <c r="D6" s="4">
         <v>72</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
+        <f>1-(D6/B6)</f>
+        <v>0.77429467084639492</v>
+      </c>
+      <c r="F6" s="11">
+        <v>319</v>
+      </c>
+      <c r="G6" s="4">
+        <v>277</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0.77429467084639492</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="K6" s="4" t="s">
+        <v>86.83385579937304</v>
+      </c>
+      <c r="I6" s="4">
+        <v>319</v>
+      </c>
+      <c r="J6" s="4">
+        <v>318</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>99.686520376175551</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -661,18 +884,50 @@
         <v>191</v>
       </c>
       <c r="C7" s="4">
+        <f>B7-D7</f>
+        <v>110</v>
+      </c>
+      <c r="D7" s="4">
         <v>81</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
+        <f>1-(D7/B7)</f>
+        <v>0.5759162303664922</v>
+      </c>
+      <c r="F7" s="11">
+        <v>191</v>
+      </c>
+      <c r="G7" s="4">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>0.5759162303664922</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="K7" s="4" t="s">
+        <v>60.209424083769633</v>
+      </c>
+      <c r="I7" s="4">
+        <v>191</v>
+      </c>
+      <c r="J7" s="4">
+        <v>176</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>92.146596858638745</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -680,37 +935,100 @@
         <v>346</v>
       </c>
       <c r="C8" s="6">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7">
+        <f>B8-D8</f>
+        <v>305</v>
+      </c>
+      <c r="D8" s="6">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
+        <f>1-(D8/B8)</f>
+        <v>0.88150289017341044</v>
+      </c>
+      <c r="F8" s="12">
+        <v>346</v>
+      </c>
+      <c r="G8" s="6">
+        <v>293</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>0.90462427745664742</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="K8" s="6" t="s">
+        <v>84.682080924855498</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C9" s="8">
-        <v>260</v>
-      </c>
-      <c r="D9" s="9">
+        <f>B9-D9</f>
+        <v>784</v>
+      </c>
+      <c r="D9" s="8">
+        <v>261</v>
+      </c>
+      <c r="E9" s="9">
+        <f>1-(D9/B9)</f>
+        <v>0.75023923444976082</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1045</v>
+      </c>
+      <c r="G9" s="8">
+        <v>784</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0.75095785440613028</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="K9" s="8" t="s">
+        <v>75.023923444976077</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1045</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1036</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>99.138755980861248</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -718,18 +1036,50 @@
         <v>1218</v>
       </c>
       <c r="C10" s="8">
+        <f>B10-D10</f>
+        <v>1025</v>
+      </c>
+      <c r="D10" s="8">
         <v>193</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
+        <f>1-(D10/B10)</f>
+        <v>0.84154351395730709</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1218</v>
+      </c>
+      <c r="G10" s="8">
+        <v>911</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>0.84154351395730709</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="K10" s="8" t="s">
+        <v>74.794745484400664</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1218</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1196</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>98.193760262725789</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -737,18 +1087,49 @@
         <v>92</v>
       </c>
       <c r="C11" s="8">
+        <f>B11-D11</f>
+        <v>92</v>
+      </c>
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
+      <c r="E11" s="9">
+        <f>1-(D11/B11)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="K11" s="8" t="s">
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="8">
+        <v>92</v>
+      </c>
+      <c r="J11" s="8">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -756,14 +1137,43 @@
         <v>764</v>
       </c>
       <c r="C12" s="6">
+        <f>B12-D12</f>
+        <v>580</v>
+      </c>
+      <c r="D12" s="6">
         <v>184</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="7">
+        <f>1-(D12/B12)</f>
+        <v>0.75916230366492143</v>
+      </c>
+      <c r="F12" s="12">
+        <v>764</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0.75916230366492143</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="K12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="6">
+        <v>764</v>
+      </c>
+      <c r="M12" s="6">
+        <v>540</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>70.680628272251312</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>23</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kianamac/Documents/GitHub/MODAtesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718F370-C77E-AE46-B23C-2FF3253C5FBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A97276-5CF7-B946-9B4B-DD29790B255B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t xml:space="preserve">cas1 </t>
   </si>
@@ -84,9 +84,6 @@
     <t>total responses</t>
   </si>
   <si>
-    <t>wrong ones</t>
-  </si>
-  <si>
     <t>number of total attributes</t>
   </si>
   <si>
@@ -111,10 +108,31 @@
     <t>NA</t>
   </si>
   <si>
-    <t>correct ones</t>
-  </si>
-  <si>
     <t>pcnt</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>testing data size</t>
+  </si>
+  <si>
+    <t>ttraining data size dialogflow</t>
+  </si>
+  <si>
+    <t>josh data</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>training data</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -195,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,19 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +246,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,77 +568,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9088DE34-8834-6540-B776-D23F00742392}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.83203125" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,149 +639,137 @@
         <v>105</v>
       </c>
       <c r="C2" s="2">
-        <f>B2-D2</f>
         <v>103</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <f>1-(D2/B2)</f>
-        <v>0.98095238095238091</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="D2" s="3">
+        <f>(C2/B2)*100</f>
+        <v>98.095238095238088</v>
+      </c>
+      <c r="E2" s="7">
         <v>105</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>103</v>
       </c>
-      <c r="H2" s="3">
-        <f>(G2/F2)*100</f>
+      <c r="G2" s="3">
+        <f>(F2/E2)*100</f>
         <v>98.095238095238088</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D12" si="0">(C3/B3)*100</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
         <v>88</v>
       </c>
-      <c r="C3" s="2">
-        <f>B3-D3</f>
+      <c r="F3" s="2">
         <v>88</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f>1-(D3/B3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>88</v>
-      </c>
       <c r="G3" s="2">
-        <v>88</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H12" si="0">(G3/F3)*100</f>
+        <f t="shared" ref="G3:G12" si="1">(F3/E3)*100</f>
         <v>100</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
         <v>76</v>
-      </c>
-      <c r="C4" s="4">
-        <f>B4-D4</f>
-        <v>76</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <f>1-(D4/B4)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="4">
         <v>76</v>
       </c>
-      <c r="J4" s="4">
-        <v>76</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K3:K12" si="1">(J4/I4)*100</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J11" si="2">(I4/H4)*100</f>
         <v>100</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -781,51 +777,47 @@
         <v>183</v>
       </c>
       <c r="C5" s="4">
-        <f>B5-D5</f>
         <v>131</v>
       </c>
-      <c r="D5" s="4">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5">
-        <f>1-(D5/B5)</f>
-        <v>0.71584699453551914</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>71.58469945355192</v>
+      </c>
+      <c r="E5" s="8">
         <v>183</v>
       </c>
-      <c r="G5" s="4">
+      <c r="F5" s="4">
         <v>162</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
         <v>88.52459016393442</v>
+      </c>
+      <c r="H5" s="4">
+        <v>183</v>
       </c>
       <c r="I5" s="4">
         <v>183</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="4">
         <v>183</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
       </c>
       <c r="L5" s="4">
         <v>183</v>
       </c>
-      <c r="M5" s="4">
-        <v>183</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N3:N12" si="2">(M5/L5)*100</f>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M12" si="3">(L5/K5)*100</f>
         <v>100</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -833,50 +825,46 @@
         <v>319</v>
       </c>
       <c r="C6" s="4">
-        <f>B6-D6</f>
         <v>247</v>
       </c>
-      <c r="D6" s="4">
-        <v>72</v>
-      </c>
-      <c r="E6" s="5">
-        <f>1-(D6/B6)</f>
-        <v>0.77429467084639492</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>77.429467084639498</v>
+      </c>
+      <c r="E6" s="8">
         <v>319</v>
       </c>
-      <c r="G6" s="4">
+      <c r="F6" s="4">
         <v>277</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
         <v>86.83385579937304</v>
       </c>
+      <c r="H6" s="4">
+        <v>319</v>
+      </c>
       <c r="I6" s="4">
-        <v>319</v>
-      </c>
-      <c r="J6" s="4">
         <v>318</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
         <v>99.686520376175551</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -884,297 +872,493 @@
         <v>191</v>
       </c>
       <c r="C7" s="4">
-        <f>B7-D7</f>
         <v>110</v>
       </c>
-      <c r="D7" s="4">
-        <v>81</v>
-      </c>
-      <c r="E7" s="5">
-        <f>1-(D7/B7)</f>
-        <v>0.5759162303664922</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>57.591623036649217</v>
+      </c>
+      <c r="E7" s="8">
         <v>191</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="4">
         <v>115</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>60.209424083769633</v>
+      </c>
+      <c r="H7" s="4">
+        <v>191</v>
+      </c>
+      <c r="I7" s="4">
+        <v>176</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>92.146596858638745</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>346</v>
+      </c>
+      <c r="C8" s="5">
+        <v>305</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>60.209424083769633</v>
-      </c>
-      <c r="I7" s="4">
-        <v>191</v>
-      </c>
-      <c r="J7" s="4">
-        <v>176</v>
-      </c>
-      <c r="K7" s="3">
+        <v>88.150289017341038</v>
+      </c>
+      <c r="E8" s="9">
+        <v>346</v>
+      </c>
+      <c r="F8" s="5">
+        <v>293</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>92.146596858638745</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="4" t="s">
+        <v>84.682080924855498</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>346</v>
-      </c>
-      <c r="C8" s="6">
-        <f>B8-D8</f>
-        <v>305</v>
-      </c>
-      <c r="D8" s="6">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7">
-        <f>1-(D8/B8)</f>
-        <v>0.88150289017341044</v>
-      </c>
-      <c r="F8" s="12">
-        <v>346</v>
-      </c>
-      <c r="G8" s="6">
-        <v>293</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>84.682080924855498</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>1045</v>
       </c>
-      <c r="C9" s="8">
-        <f>B9-D9</f>
+      <c r="C9" s="6">
         <v>784</v>
       </c>
-      <c r="D9" s="8">
-        <v>261</v>
-      </c>
-      <c r="E9" s="9">
-        <f>1-(D9/B9)</f>
-        <v>0.75023923444976082</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1045</v>
-      </c>
-      <c r="G9" s="8">
-        <v>784</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>75.023923444976077</v>
       </c>
-      <c r="I9" s="8">
+      <c r="E9" s="10">
         <v>1045</v>
       </c>
-      <c r="J9" s="8">
+      <c r="F9" s="6">
+        <v>784</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>75.023923444976077</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1045</v>
+      </c>
+      <c r="I9" s="6">
         <v>1036</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>99.138755980861248</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1218</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1025</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>84.154351395730714</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1218</v>
+      </c>
+      <c r="F10" s="6">
+        <v>911</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>99.138755980861248</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+        <v>74.794745484400664</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1218</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1196</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>98.193760262725789</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6">
+        <v>92</v>
+      </c>
+      <c r="I11" s="6">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>764</v>
+      </c>
+      <c r="C12" s="5">
+        <v>580</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>75.916230366492144</v>
+      </c>
+      <c r="E12" s="9">
+        <v>764</v>
+      </c>
+      <c r="F12" s="5">
+        <v>760</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>99.476439790575924</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="5">
+        <v>764</v>
+      </c>
+      <c r="L12" s="5">
+        <v>764</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13">
+        <f>(D2+D3)/2</f>
+        <v>99.047619047619037</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <f>(G2+G3)/2</f>
+        <v>99.047619047619037</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="13">
+        <f>(D4+D5+D6+D7)/4</f>
+        <v>76.651447393710157</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(G5+G6+G7)/3</f>
+        <v>78.522623349025707</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1">
+        <f>(J4+J5+J6+J7)/4</f>
+        <v>97.958279308703581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13">
+        <f>(D8+D12)/2</f>
+        <v>82.033259691916584</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(G8+G12)/2</f>
+        <v>92.079260357715711</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13">
+        <f>(D9+D10+D11)/3</f>
+        <v>86.392758280235583</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1">
+        <f>(G9+G10)/2</f>
+        <v>74.909334464688371</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1">
+        <f>(J9+J10+J11)/3</f>
+        <v>99.11083874786236</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <f>SUM(B2:B12)</f>
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
-        <v>1218</v>
-      </c>
-      <c r="C10" s="8">
-        <f>B10-D10</f>
-        <v>1025</v>
-      </c>
-      <c r="D10" s="8">
-        <v>193</v>
-      </c>
-      <c r="E10" s="9">
-        <f>1-(D10/B10)</f>
-        <v>0.84154351395730709</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1218</v>
-      </c>
-      <c r="G10" s="8">
-        <v>911</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>74.794745484400664</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1218</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1196</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>98.193760262725789</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="C39" s="1">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
-        <v>92</v>
-      </c>
-      <c r="C11" s="8">
-        <f>B11-D11</f>
-        <v>92</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <f>1-(D11/B11)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="8">
-        <v>92</v>
-      </c>
-      <c r="J11" s="8">
-        <v>92</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="C40" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
-        <v>764</v>
-      </c>
-      <c r="C12" s="6">
-        <f>B12-D12</f>
-        <v>580</v>
-      </c>
-      <c r="D12" s="6">
-        <v>184</v>
-      </c>
-      <c r="E12" s="7">
-        <f>1-(D12/B12)</f>
-        <v>0.75916230366492143</v>
-      </c>
-      <c r="F12" s="12">
-        <v>764</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="6">
-        <v>764</v>
-      </c>
-      <c r="M12" s="6">
-        <v>540</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="2"/>
-        <v>70.680628272251312</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>23</v>
+      <c r="C41" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1">
+        <f>SUM(C31:C41)</f>
+        <v>9512</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C42+D29</f>
+        <v>11302</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kianamac/Documents/GitHub/MODAtesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A97276-5CF7-B946-9B4B-DD29790B255B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C80D8DE-B292-F94A-93B0-1B3E0567E9BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
+    <workbookView xWindow="-17460" yWindow="-240" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,6 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +255,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9088DE34-8834-6540-B776-D23F00742392}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D18"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +816,7 @@
         <v>183</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" ref="M5:M12" si="3">(L5/K5)*100</f>
+        <f t="shared" ref="M5" si="3">(L5/K5)*100</f>
         <v>100</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -1154,7 +1160,7 @@
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="14">
         <f>(G2+G3)/2</f>
         <v>99.047619047619037</v>
       </c>
@@ -1176,7 +1182,7 @@
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="14">
         <f>(G5+G6+G7)/3</f>
         <v>78.522623349025707</v>
       </c>
@@ -1199,7 +1205,7 @@
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="14">
         <f>(G8+G12)/2</f>
         <v>92.079260357715711</v>
       </c>
@@ -1221,7 +1227,7 @@
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <f>(G9+G10)/2</f>
         <v>74.909334464688371</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kianamac/Documents/GitHub/MODAtesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C80D8DE-B292-F94A-93B0-1B3E0567E9BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED93B7-3145-B543-A906-E728613F3DE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17460" yWindow="-240" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
+    <workbookView xWindow="7000" yWindow="1740" windowWidth="16820" windowHeight="15940" xr2:uid="{A1017C5B-3EF3-704B-8F16-845EC134E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -257,7 +257,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9088DE34-8834-6540-B776-D23F00742392}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,11 +878,11 @@
         <v>191</v>
       </c>
       <c r="C7" s="4">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>57.591623036649217</v>
+        <v>95.81151832460732</v>
       </c>
       <c r="E7" s="8">
         <v>191</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D16" s="13">
         <f>(D4+D5+D6+D7)/4</f>
-        <v>76.651447393710157</v>
+        <v>86.206421215699692</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
